--- a/scenarios/simple-polska/estinet/simple-polska/simple-polska.results/per_node/node17/stats.xlsx
+++ b/scenarios/simple-polska/estinet/simple-polska/simple-polska.results/per_node/node17/stats.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>No. requests</t>
-  </si>
-  <si>
-    <t>User1</t>
   </si>
   <si>
     <t>Total requests</t>
@@ -71,25 +68,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
